--- a/data/pca/factorExposure/factorExposure_2009-11-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.004880452181880156</v>
+        <v>0.01665944389151426</v>
       </c>
       <c r="C2">
-        <v>0.008546014647774504</v>
+        <v>-0.0009629800536920331</v>
       </c>
       <c r="D2">
-        <v>-0.002255583603060621</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007711687643119061</v>
+      </c>
+      <c r="E2">
+        <v>0.0004727731716458591</v>
+      </c>
+      <c r="F2">
+        <v>-0.01131125354215811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.04453735833695038</v>
+        <v>0.0938159453142504</v>
       </c>
       <c r="C4">
-        <v>0.1044715258823237</v>
+        <v>-0.01521689358789661</v>
       </c>
       <c r="D4">
-        <v>-0.03773740398648283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08381890005164655</v>
+      </c>
+      <c r="E4">
+        <v>0.02827327093329728</v>
+      </c>
+      <c r="F4">
+        <v>0.03106331425070112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.05918241905287838</v>
+        <v>0.1575572621544316</v>
       </c>
       <c r="C6">
-        <v>0.1174481689820532</v>
+        <v>-0.02543279132772311</v>
       </c>
       <c r="D6">
-        <v>0.04275763304866444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02098836075928191</v>
+      </c>
+      <c r="E6">
+        <v>0.01189773460847839</v>
+      </c>
+      <c r="F6">
+        <v>0.04640580298852189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.02105456573233931</v>
+        <v>0.06276958065478315</v>
       </c>
       <c r="C7">
-        <v>0.07973354201753023</v>
+        <v>0.001568227425265489</v>
       </c>
       <c r="D7">
-        <v>-0.01584975126151884</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05289440381406833</v>
+      </c>
+      <c r="E7">
+        <v>0.009652793839798952</v>
+      </c>
+      <c r="F7">
+        <v>0.04762780140944989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.007766492065401122</v>
+        <v>0.05701443849697763</v>
       </c>
       <c r="C8">
-        <v>0.06996693311826641</v>
+        <v>0.0135050918550054</v>
       </c>
       <c r="D8">
-        <v>0.01305057830544123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03331313584984719</v>
+      </c>
+      <c r="E8">
+        <v>0.01710697001081399</v>
+      </c>
+      <c r="F8">
+        <v>-0.02815738452422444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.03921534834955279</v>
+        <v>0.07116432473817987</v>
       </c>
       <c r="C9">
-        <v>0.09388578330580112</v>
+        <v>-0.01079436245349676</v>
       </c>
       <c r="D9">
-        <v>-0.03564302385449568</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08587517350394161</v>
+      </c>
+      <c r="E9">
+        <v>0.02254354061517279</v>
+      </c>
+      <c r="F9">
+        <v>0.04715105593867679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01866836855658499</v>
+        <v>0.09483410053951939</v>
       </c>
       <c r="C10">
-        <v>0.03148961312015184</v>
+        <v>-0.0208584489683046</v>
       </c>
       <c r="D10">
-        <v>0.121701609083152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1700759743430291</v>
+      </c>
+      <c r="E10">
+        <v>-0.03543437599656908</v>
+      </c>
+      <c r="F10">
+        <v>-0.05415354498395132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0422701481985483</v>
+        <v>0.08737994146085815</v>
       </c>
       <c r="C11">
-        <v>0.09670620925082959</v>
+        <v>-0.01053706475715252</v>
       </c>
       <c r="D11">
-        <v>-0.05952234570797425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.116811313918731</v>
+      </c>
+      <c r="E11">
+        <v>0.04606213409330182</v>
+      </c>
+      <c r="F11">
+        <v>0.02177863130044758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.04240505005899584</v>
+        <v>0.0920874940126945</v>
       </c>
       <c r="C12">
-        <v>0.1058087903525693</v>
+        <v>-0.007976528700847797</v>
       </c>
       <c r="D12">
-        <v>-0.06066546632770838</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1317311476826563</v>
+      </c>
+      <c r="E12">
+        <v>0.04790805767627769</v>
+      </c>
+      <c r="F12">
+        <v>0.02678374218449817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01594961551990258</v>
+        <v>0.04187404898634881</v>
       </c>
       <c r="C13">
-        <v>0.04253056001616861</v>
+        <v>-0.002958030252466664</v>
       </c>
       <c r="D13">
-        <v>-0.03182541434170038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05220300382553609</v>
+      </c>
+      <c r="E13">
+        <v>-0.008288027151957811</v>
+      </c>
+      <c r="F13">
+        <v>0.003269231923172401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02048577520909834</v>
+        <v>0.02261098446468755</v>
       </c>
       <c r="C14">
-        <v>0.01843478609794659</v>
+        <v>-0.01371722722348785</v>
       </c>
       <c r="D14">
-        <v>-0.006237184659932444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0332174683187603</v>
+      </c>
+      <c r="E14">
+        <v>0.01760173843652595</v>
+      </c>
+      <c r="F14">
+        <v>0.0133784668076765</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01687820625024132</v>
+        <v>0.0331547493818882</v>
       </c>
       <c r="C15">
-        <v>0.03205078817919328</v>
+        <v>-0.004805372116931232</v>
       </c>
       <c r="D15">
-        <v>-0.01093724130306609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04486805454313898</v>
+      </c>
+      <c r="E15">
+        <v>0.00577560064857445</v>
+      </c>
+      <c r="F15">
+        <v>0.02315578482411869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.03181711289617434</v>
+        <v>0.07418564020402549</v>
       </c>
       <c r="C16">
-        <v>0.0956893695148207</v>
+        <v>-0.001700539604485579</v>
       </c>
       <c r="D16">
-        <v>-0.04981241175989046</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1254564209946906</v>
+      </c>
+      <c r="E16">
+        <v>0.06153825864359229</v>
+      </c>
+      <c r="F16">
+        <v>0.02377343134111721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03287097215342126</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003602718758124116</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01838928354056748</v>
+      </c>
+      <c r="E18">
+        <v>-0.008020717449283499</v>
+      </c>
+      <c r="F18">
+        <v>-0.006078264370348425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.02165143319055004</v>
+        <v>0.06083685971180518</v>
       </c>
       <c r="C20">
-        <v>0.05913366799978702</v>
+        <v>-0.0002946462155041571</v>
       </c>
       <c r="D20">
-        <v>-0.01276586613783439</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0773946170497616</v>
+      </c>
+      <c r="E20">
+        <v>0.05561984048800149</v>
+      </c>
+      <c r="F20">
+        <v>0.02223903108363337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02046311949326702</v>
+        <v>0.04080262632394922</v>
       </c>
       <c r="C21">
-        <v>0.03776582175301951</v>
+        <v>-0.006550853578445911</v>
       </c>
       <c r="D21">
-        <v>-0.0023084287059927</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03695258311022523</v>
+      </c>
+      <c r="E21">
+        <v>-0.005711656758299912</v>
+      </c>
+      <c r="F21">
+        <v>-0.0238082087026053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.009158968038759123</v>
+        <v>0.04357113315288738</v>
       </c>
       <c r="C22">
-        <v>0.03007679836646435</v>
+        <v>-0.0007453049174720634</v>
       </c>
       <c r="D22">
-        <v>0.03151076073430456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004571213589689906</v>
+      </c>
+      <c r="E22">
+        <v>0.03050289605746654</v>
+      </c>
+      <c r="F22">
+        <v>-0.03654269461091753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.009142531855033857</v>
+        <v>0.043556719021667</v>
       </c>
       <c r="C23">
-        <v>0.03003031642295383</v>
+        <v>-0.0007409396745361249</v>
       </c>
       <c r="D23">
-        <v>0.03157031794501008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004575866058955278</v>
+      </c>
+      <c r="E23">
+        <v>0.03070427172433054</v>
+      </c>
+      <c r="F23">
+        <v>-0.0365068184211754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.03346704195649251</v>
+        <v>0.07989056180985805</v>
       </c>
       <c r="C24">
-        <v>0.1034881336664813</v>
+        <v>-0.002119399617350023</v>
       </c>
       <c r="D24">
-        <v>-0.05537699205378119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1209091294388528</v>
+      </c>
+      <c r="E24">
+        <v>0.04881772316517427</v>
+      </c>
+      <c r="F24">
+        <v>0.02596052232550848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.03682581871435487</v>
+        <v>0.08468855013517051</v>
       </c>
       <c r="C25">
-        <v>0.09933032351057833</v>
+        <v>-0.004430154826436847</v>
       </c>
       <c r="D25">
-        <v>-0.0664398471323799</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1092428365995542</v>
+      </c>
+      <c r="E25">
+        <v>0.03230393902304805</v>
+      </c>
+      <c r="F25">
+        <v>0.0263088266256095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03073137112641715</v>
+        <v>0.05800873458390081</v>
       </c>
       <c r="C26">
-        <v>0.04612134872654135</v>
+        <v>-0.01428756494488716</v>
       </c>
       <c r="D26">
-        <v>-0.004068646928754672</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04026282175309218</v>
+      </c>
+      <c r="E26">
+        <v>0.02837685026654863</v>
+      </c>
+      <c r="F26">
+        <v>-0.00979232455590663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.02489153440797631</v>
+        <v>0.1402654325464356</v>
       </c>
       <c r="C28">
-        <v>0.07573388062264806</v>
+        <v>-0.02040088489478612</v>
       </c>
       <c r="D28">
-        <v>0.2180750884467546</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2617599860929929</v>
+      </c>
+      <c r="E28">
+        <v>-0.06739010599770549</v>
+      </c>
+      <c r="F28">
+        <v>0.01051736521510638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01639456223565064</v>
+        <v>0.02743315032458074</v>
       </c>
       <c r="C29">
-        <v>0.01998141796245451</v>
+        <v>-0.008397818435234534</v>
       </c>
       <c r="D29">
-        <v>-0.005264938851976506</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03188958465008659</v>
+      </c>
+      <c r="E29">
+        <v>0.01124315486963902</v>
+      </c>
+      <c r="F29">
+        <v>-0.01217403961276407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.03383827486040195</v>
+        <v>0.06091102667019747</v>
       </c>
       <c r="C30">
-        <v>0.1162781252771042</v>
+        <v>-0.003177280145366752</v>
       </c>
       <c r="D30">
-        <v>-0.04284971380241975</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08942343164333963</v>
+      </c>
+      <c r="E30">
+        <v>0.01949963830125054</v>
+      </c>
+      <c r="F30">
+        <v>0.08279879008822277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02516757091366612</v>
+        <v>0.0500908315365285</v>
       </c>
       <c r="C31">
-        <v>0.02858169679726432</v>
+        <v>-0.0151469151892026</v>
       </c>
       <c r="D31">
-        <v>-0.009466708410843797</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02480307326389781</v>
+      </c>
+      <c r="E31">
+        <v>0.02750615739547091</v>
+      </c>
+      <c r="F31">
+        <v>-0.002200906243298939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.01558238552268621</v>
+        <v>0.04987173429242904</v>
       </c>
       <c r="C32">
-        <v>0.05393109992059899</v>
+        <v>0.001672423680710188</v>
       </c>
       <c r="D32">
-        <v>0.006127236077000603</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03707527139080102</v>
+      </c>
+      <c r="E32">
+        <v>0.03178666157798717</v>
+      </c>
+      <c r="F32">
+        <v>0.002690896801454352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.03872340721791551</v>
+        <v>0.08982615565343405</v>
       </c>
       <c r="C33">
-        <v>0.1035422249490733</v>
+        <v>-0.007493005112435555</v>
       </c>
       <c r="D33">
-        <v>-0.03772909028039514</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09954872573158617</v>
+      </c>
+      <c r="E33">
+        <v>0.04399284882256095</v>
+      </c>
+      <c r="F33">
+        <v>0.03546715687747721</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.03816332520157323</v>
+        <v>0.06739568799786479</v>
       </c>
       <c r="C34">
-        <v>0.08690588495880681</v>
+        <v>-0.01045012616205479</v>
       </c>
       <c r="D34">
-        <v>-0.05509515114175526</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1077863776836636</v>
+      </c>
+      <c r="E34">
+        <v>0.03427266428974223</v>
+      </c>
+      <c r="F34">
+        <v>0.03321323397541716</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.008178006247534158</v>
+        <v>0.02438879434672804</v>
       </c>
       <c r="C35">
-        <v>0.02031422975267747</v>
+        <v>-0.002386335222623562</v>
       </c>
       <c r="D35">
-        <v>-0.0006276818659810667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01139422910790303</v>
+      </c>
+      <c r="E35">
+        <v>0.01146727534280051</v>
+      </c>
+      <c r="F35">
+        <v>0.0004188445443721951</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.016925153116524</v>
+        <v>0.02785555349492667</v>
       </c>
       <c r="C36">
-        <v>0.02983015694614908</v>
+        <v>-0.007046070399852936</v>
       </c>
       <c r="D36">
-        <v>-0.008094855832926809</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03944954575812353</v>
+      </c>
+      <c r="E36">
+        <v>0.01648231674190941</v>
+      </c>
+      <c r="F36">
+        <v>0.0144473203402321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0003380231837427585</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.000132937281440593</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0003412666290825794</v>
+      </c>
+      <c r="E37">
+        <v>-0.0004370874406292389</v>
+      </c>
+      <c r="F37">
+        <v>0.00080251850641106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.00090589821461979</v>
+        <v>0.001412066889204256</v>
       </c>
       <c r="C38">
-        <v>0.003053044539457166</v>
+        <v>-0.0002407187325904573</v>
       </c>
       <c r="D38">
-        <v>0.002229988642396341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0003137950971714865</v>
+      </c>
+      <c r="E38">
+        <v>0.0002957331824846253</v>
+      </c>
+      <c r="F38">
+        <v>-0.0008970915697287039</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.05885396102344229</v>
+        <v>0.1053567433133285</v>
       </c>
       <c r="C39">
-        <v>0.1418995177798023</v>
+        <v>-0.01574679795681776</v>
       </c>
       <c r="D39">
-        <v>-0.1033544200808465</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1539354932118265</v>
+      </c>
+      <c r="E39">
+        <v>0.05887330606164587</v>
+      </c>
+      <c r="F39">
+        <v>0.02936899250926009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01518736054349331</v>
+        <v>0.0422332866581404</v>
       </c>
       <c r="C40">
-        <v>0.01997696064543384</v>
+        <v>-0.006696066243933929</v>
       </c>
       <c r="D40">
-        <v>0.008230167477479672</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03190462018661397</v>
+      </c>
+      <c r="E40">
+        <v>0.003139829569390152</v>
+      </c>
+      <c r="F40">
+        <v>-0.01587799201191223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01339455522163274</v>
+        <v>0.02806112743971186</v>
       </c>
       <c r="C41">
-        <v>0.01447492642485146</v>
+        <v>-0.006859363354334671</v>
       </c>
       <c r="D41">
-        <v>0.00660222904064964</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01009044440096855</v>
+      </c>
+      <c r="E41">
+        <v>0.0124284040374584</v>
+      </c>
+      <c r="F41">
+        <v>-0.006382681976787757</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01590538634653497</v>
+        <v>0.04073016775025985</v>
       </c>
       <c r="C43">
-        <v>0.02206882348858082</v>
+        <v>-0.006806459982792814</v>
       </c>
       <c r="D43">
-        <v>-0.0009177423083208579</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01944454871660629</v>
+      </c>
+      <c r="E43">
+        <v>0.02447987152521127</v>
+      </c>
+      <c r="F43">
+        <v>-0.01341109954454382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.05201137902384033</v>
+        <v>0.07955917420672316</v>
       </c>
       <c r="C44">
-        <v>0.1124270809588328</v>
+        <v>-0.01989124746698345</v>
       </c>
       <c r="D44">
-        <v>-0.02507973287961213</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09736393623501392</v>
+      </c>
+      <c r="E44">
+        <v>0.06465571688356193</v>
+      </c>
+      <c r="F44">
+        <v>0.1551450772304798</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.006265915819228773</v>
+        <v>0.02315321311978105</v>
       </c>
       <c r="C46">
-        <v>0.006879628438643909</v>
+        <v>-0.003446645461406185</v>
       </c>
       <c r="D46">
-        <v>0.009640737988999299</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0129883025146602</v>
+      </c>
+      <c r="E46">
+        <v>0.02199085285085186</v>
+      </c>
+      <c r="F46">
+        <v>-0.006784881877411717</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01456660324423797</v>
+        <v>0.05142458143992735</v>
       </c>
       <c r="C47">
-        <v>0.02896926176986828</v>
+        <v>-0.003478893263260366</v>
       </c>
       <c r="D47">
-        <v>0.02217218763712818</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0138996646421693</v>
+      </c>
+      <c r="E47">
+        <v>0.02356257612246947</v>
+      </c>
+      <c r="F47">
+        <v>-0.03347977872417913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01856937245420557</v>
+        <v>0.04993532331431731</v>
       </c>
       <c r="C48">
-        <v>0.04838643284580811</v>
+        <v>-0.002408804108665082</v>
       </c>
       <c r="D48">
-        <v>-0.03016178545941715</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04981212993439456</v>
+      </c>
+      <c r="E48">
+        <v>-0.006183665449395424</v>
+      </c>
+      <c r="F48">
+        <v>0.00924127619807999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.07238327318152533</v>
+        <v>0.200336582019983</v>
       </c>
       <c r="C49">
-        <v>0.2164640250309276</v>
+        <v>-0.01908462920400389</v>
       </c>
       <c r="D49">
-        <v>0.05319332686276949</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.008135758958338726</v>
+      </c>
+      <c r="E49">
+        <v>0.03081949245469861</v>
+      </c>
+      <c r="F49">
+        <v>0.03884871167338016</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.02304289570733567</v>
+        <v>0.05049673040750127</v>
       </c>
       <c r="C50">
-        <v>0.03385988659691706</v>
+        <v>-0.01106236275967938</v>
       </c>
       <c r="D50">
-        <v>-0.00645889011057565</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02399223477409169</v>
+      </c>
+      <c r="E50">
+        <v>0.02976099424105297</v>
+      </c>
+      <c r="F50">
+        <v>0.009374376313846836</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0003588686069568442</v>
+        <v>0.0004671279450974164</v>
       </c>
       <c r="C51">
-        <v>0.0009311029123217374</v>
+        <v>-0.0001346348145177189</v>
       </c>
       <c r="D51">
-        <v>0.0008989748428431042</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0001697575412105691</v>
+      </c>
+      <c r="E51">
+        <v>-1.979847706395346e-06</v>
+      </c>
+      <c r="F51">
+        <v>0.001783289116650657</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.05387034225054962</v>
+        <v>0.1465289048824142</v>
       </c>
       <c r="C52">
-        <v>0.1529809084232621</v>
+        <v>-0.01589352019905004</v>
       </c>
       <c r="D52">
-        <v>-0.02622622046644742</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04442340739694244</v>
+      </c>
+      <c r="E52">
+        <v>0.02062885894021527</v>
+      </c>
+      <c r="F52">
+        <v>0.04213223254356748</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.05835374864941976</v>
+        <v>0.1719915466482717</v>
       </c>
       <c r="C53">
-        <v>0.1688238354770595</v>
+        <v>-0.01887551609013565</v>
       </c>
       <c r="D53">
-        <v>0.009125873907165384</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006886471811736829</v>
+      </c>
+      <c r="E53">
+        <v>0.03225651609684373</v>
+      </c>
+      <c r="F53">
+        <v>0.07354056785723494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02013619233820117</v>
+        <v>0.0221608988105288</v>
       </c>
       <c r="C54">
-        <v>0.03168428753069995</v>
+        <v>-0.01207941640367471</v>
       </c>
       <c r="D54">
-        <v>-0.005537566861405766</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03431586466020752</v>
+      </c>
+      <c r="E54">
+        <v>0.01826368282553652</v>
+      </c>
+      <c r="F54">
+        <v>-0.004472480734983909</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.04007449004712311</v>
+        <v>0.1141904464010725</v>
       </c>
       <c r="C55">
-        <v>0.09579347851164717</v>
+        <v>-0.01644413670590319</v>
       </c>
       <c r="D55">
-        <v>-0.001741960348342265</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009589926836451225</v>
+      </c>
+      <c r="E55">
+        <v>0.02833215138499005</v>
+      </c>
+      <c r="F55">
+        <v>0.04802519202070851</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.05349036479328945</v>
+        <v>0.1770187150373927</v>
       </c>
       <c r="C56">
-        <v>0.1552746741470817</v>
+        <v>-0.01650077458724573</v>
       </c>
       <c r="D56">
-        <v>0.0157888538923917</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0006941989886129786</v>
+      </c>
+      <c r="E56">
+        <v>0.03589007314414249</v>
+      </c>
+      <c r="F56">
+        <v>0.05207975453394058</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01867307112509752</v>
+        <v>0.04602495392313948</v>
       </c>
       <c r="C58">
-        <v>0.04357745358211728</v>
+        <v>-0.0003672516604619997</v>
       </c>
       <c r="D58">
-        <v>-0.02575573580537696</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06751870227450089</v>
+      </c>
+      <c r="E58">
+        <v>0.02683738982291681</v>
+      </c>
+      <c r="F58">
+        <v>-0.03690308165806833</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.03641973207638381</v>
+        <v>0.1681887045658256</v>
       </c>
       <c r="C59">
-        <v>0.1187765836117707</v>
+        <v>-0.02092365238888135</v>
       </c>
       <c r="D59">
-        <v>0.210324913323278</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2187359116359905</v>
+      </c>
+      <c r="E59">
+        <v>-0.04654178029991531</v>
+      </c>
+      <c r="F59">
+        <v>-0.03459366231861289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.06153833853648081</v>
+        <v>0.2318439543693877</v>
       </c>
       <c r="C60">
-        <v>0.2506700145372842</v>
+        <v>0.002580989423082387</v>
       </c>
       <c r="D60">
-        <v>-0.00571987250046579</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04202778153965039</v>
+      </c>
+      <c r="E60">
+        <v>0.01126298707642617</v>
+      </c>
+      <c r="F60">
+        <v>-0.007066759804169313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.0464803594134845</v>
+        <v>0.08157256203972632</v>
       </c>
       <c r="C61">
-        <v>0.1259821974099055</v>
+        <v>-0.0116134188016001</v>
       </c>
       <c r="D61">
-        <v>-0.04877306086609684</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1170030160820671</v>
+      </c>
+      <c r="E61">
+        <v>0.0387703625774796</v>
+      </c>
+      <c r="F61">
+        <v>0.01110319838048164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.05621108452465549</v>
+        <v>0.1700749813746202</v>
       </c>
       <c r="C62">
-        <v>0.1531964793753474</v>
+        <v>-0.01985973362896521</v>
       </c>
       <c r="D62">
-        <v>0.01296918262322652</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006475364370273969</v>
+      </c>
+      <c r="E62">
+        <v>0.03503212643647272</v>
+      </c>
+      <c r="F62">
+        <v>0.03300170959831896</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01793142000024813</v>
+        <v>0.04606318994266115</v>
       </c>
       <c r="C63">
-        <v>0.04770846237183834</v>
+        <v>-0.001847740015458916</v>
       </c>
       <c r="D63">
-        <v>-0.0288399048156898</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05816122903770052</v>
+      </c>
+      <c r="E63">
+        <v>0.02145252743927981</v>
+      </c>
+      <c r="F63">
+        <v>0.004902965429940852</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.0370481738127147</v>
+        <v>0.1103076227198846</v>
       </c>
       <c r="C64">
-        <v>0.08529740728761231</v>
+        <v>-0.01101718811225261</v>
       </c>
       <c r="D64">
-        <v>-0.007444079091489801</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04364092094523321</v>
+      </c>
+      <c r="E64">
+        <v>0.02482296562475925</v>
+      </c>
+      <c r="F64">
+        <v>0.02563900387744412</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.06139833903943814</v>
+        <v>0.1475505224210678</v>
       </c>
       <c r="C65">
-        <v>0.1137554719968653</v>
+        <v>-0.03257801649925863</v>
       </c>
       <c r="D65">
-        <v>0.03508304278968493</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04016885305438884</v>
+      </c>
+      <c r="E65">
+        <v>0.005401376097799027</v>
+      </c>
+      <c r="F65">
+        <v>0.04053344813863078</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.06341494284040346</v>
+        <v>0.1246866819419313</v>
       </c>
       <c r="C66">
-        <v>0.1760079931161269</v>
+        <v>-0.01391319948360219</v>
       </c>
       <c r="D66">
-        <v>-0.08663191175774076</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1424258923647488</v>
+      </c>
+      <c r="E66">
+        <v>0.06628268292243146</v>
+      </c>
+      <c r="F66">
+        <v>0.03131920605071771</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.02264414984052058</v>
+        <v>0.0606502202834819</v>
       </c>
       <c r="C67">
-        <v>0.06750461130457668</v>
+        <v>-0.003331525595043138</v>
       </c>
       <c r="D67">
-        <v>-0.01397749161245324</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0554422705189026</v>
+      </c>
+      <c r="E67">
+        <v>0.01749778825436884</v>
+      </c>
+      <c r="F67">
+        <v>-0.03402031018756584</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.02913287235127768</v>
+        <v>0.1160811225760917</v>
       </c>
       <c r="C68">
-        <v>0.04868862723911412</v>
+        <v>-0.03128611186500015</v>
       </c>
       <c r="D68">
-        <v>0.1876095232314692</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2603739246941176</v>
+      </c>
+      <c r="E68">
+        <v>-0.08618034376636209</v>
+      </c>
+      <c r="F68">
+        <v>0.006448236024468923</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.01092654488901718</v>
+        <v>0.03997137257417552</v>
       </c>
       <c r="C69">
-        <v>0.03452297215563109</v>
+        <v>-0.00147795640920372</v>
       </c>
       <c r="D69">
-        <v>0.01880680102148954</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.006894115491095339</v>
+      </c>
+      <c r="E69">
+        <v>0.02270102786288249</v>
+      </c>
+      <c r="F69">
+        <v>-0.0006732629623605852</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.01360036032851809</v>
+        <v>0.0657762460650301</v>
       </c>
       <c r="C70">
-        <v>0.01811504405710809</v>
+        <v>0.02783493641257732</v>
       </c>
       <c r="D70">
-        <v>0.04034596977569594</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02466985996328204</v>
+      </c>
+      <c r="E70">
+        <v>-0.03941555606792838</v>
+      </c>
+      <c r="F70">
+        <v>-0.1843688678550888</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.03624578365110689</v>
+        <v>0.1361440239665241</v>
       </c>
       <c r="C71">
-        <v>0.06435924003443592</v>
+        <v>-0.03556004680355055</v>
       </c>
       <c r="D71">
-        <v>0.2066991322802746</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2729971135155433</v>
+      </c>
+      <c r="E71">
+        <v>-0.09596200399814157</v>
+      </c>
+      <c r="F71">
+        <v>0.01262566949206486</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.05579623300307966</v>
+        <v>0.1416941645739406</v>
       </c>
       <c r="C72">
-        <v>0.1183699653512778</v>
+        <v>-0.02608941869878694</v>
       </c>
       <c r="D72">
-        <v>0.02979598115080846</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.000713481518509504</v>
+      </c>
+      <c r="E72">
+        <v>0.03887019652153495</v>
+      </c>
+      <c r="F72">
+        <v>0.03327794567566281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.06426431847338483</v>
+        <v>0.2014968939401887</v>
       </c>
       <c r="C73">
-        <v>0.199617883390147</v>
+        <v>-0.01234360996090321</v>
       </c>
       <c r="D73">
-        <v>0.05270568444843225</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01667514178540335</v>
+      </c>
+      <c r="E73">
+        <v>0.0634083177081802</v>
+      </c>
+      <c r="F73">
+        <v>0.03674572110149443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.03824776528191257</v>
+        <v>0.09469359120746081</v>
       </c>
       <c r="C74">
-        <v>0.1064942721457507</v>
+        <v>-0.0131817182732145</v>
       </c>
       <c r="D74">
-        <v>0.01668831282402809</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01730555977708495</v>
+      </c>
+      <c r="E74">
+        <v>0.04427310322896945</v>
+      </c>
+      <c r="F74">
+        <v>0.0567813585234034</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.06088694395155683</v>
+        <v>0.1278175966631685</v>
       </c>
       <c r="C75">
-        <v>0.1302660174906247</v>
+        <v>-0.02801122686423214</v>
       </c>
       <c r="D75">
-        <v>0.02183162956493942</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02999249887860555</v>
+      </c>
+      <c r="E75">
+        <v>0.05823695889710171</v>
+      </c>
+      <c r="F75">
+        <v>0.01892024165483587</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>5.70853599900039e-05</v>
+        <v>6.585124987815341e-05</v>
       </c>
       <c r="C76">
-        <v>0.0001777173388039201</v>
+        <v>-5.152754437295942e-05</v>
       </c>
       <c r="D76">
-        <v>0.0006259027239084314</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0004320035704167038</v>
+      </c>
+      <c r="E76">
+        <v>-0.0002139520813726247</v>
+      </c>
+      <c r="F76">
+        <v>0.0003808150802130209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.03647699790074653</v>
+        <v>0.08700626059072079</v>
       </c>
       <c r="C77">
-        <v>0.09007605756137142</v>
+        <v>-0.008143790322191216</v>
       </c>
       <c r="D77">
-        <v>-0.06965626027053579</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1131403224736754</v>
+      </c>
+      <c r="E77">
+        <v>0.03924708419897665</v>
+      </c>
+      <c r="F77">
+        <v>0.03253091772740908</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.07724875851035387</v>
+        <v>0.1007564415745445</v>
       </c>
       <c r="C78">
-        <v>0.1260180239692275</v>
+        <v>-0.03958135481953724</v>
       </c>
       <c r="D78">
-        <v>0.007437180754841358</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1156915708398392</v>
+      </c>
+      <c r="E78">
+        <v>0.07361084833286205</v>
+      </c>
+      <c r="F78">
+        <v>0.04569886884969483</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.05801919229721799</v>
+        <v>0.164546357831268</v>
       </c>
       <c r="C79">
-        <v>0.1405710509892065</v>
+        <v>-0.02232781081467303</v>
       </c>
       <c r="D79">
-        <v>0.02848877533932919</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01483769150457775</v>
+      </c>
+      <c r="E79">
+        <v>0.04631151058992578</v>
+      </c>
+      <c r="F79">
+        <v>0.01089949965522686</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.02384212338080145</v>
+        <v>0.08288013940524311</v>
       </c>
       <c r="C80">
-        <v>0.0902568830119795</v>
+        <v>0.0007067558490691665</v>
       </c>
       <c r="D80">
-        <v>-0.01194877266876029</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05576499245670744</v>
+      </c>
+      <c r="E80">
+        <v>0.03637932441690318</v>
+      </c>
+      <c r="F80">
+        <v>-0.02413109953015394</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.06114663743542002</v>
+        <v>0.1211849974856533</v>
       </c>
       <c r="C81">
-        <v>0.1244633156103859</v>
+        <v>-0.03178772250636354</v>
       </c>
       <c r="D81">
-        <v>0.006777380213624585</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01517492050238122</v>
+      </c>
+      <c r="E81">
+        <v>0.05719826804950066</v>
+      </c>
+      <c r="F81">
+        <v>0.01666933652223433</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.0609121476152966</v>
+        <v>0.1658251011707946</v>
       </c>
       <c r="C82">
-        <v>0.1526094637731785</v>
+        <v>-0.02423475140736573</v>
       </c>
       <c r="D82">
-        <v>0.01032441812776182</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004010632911935708</v>
+      </c>
+      <c r="E82">
+        <v>0.02872380465897754</v>
+      </c>
+      <c r="F82">
+        <v>0.08059225099894643</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.02601709528403615</v>
+        <v>0.05987310837700954</v>
       </c>
       <c r="C83">
-        <v>0.0670891911502499</v>
+        <v>-0.002811193811693668</v>
       </c>
       <c r="D83">
-        <v>-0.01772043713173983</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05126413116696275</v>
+      </c>
+      <c r="E83">
+        <v>0.005203165477692295</v>
+      </c>
+      <c r="F83">
+        <v>-0.03134401684173963</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.03419259613821964</v>
+        <v>0.05882507950980148</v>
       </c>
       <c r="C84">
-        <v>0.07064727332986137</v>
+        <v>-0.01116379402385212</v>
       </c>
       <c r="D84">
-        <v>-0.03290493459317555</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06337430943416837</v>
+      </c>
+      <c r="E84">
+        <v>0.006243303798935318</v>
+      </c>
+      <c r="F84">
+        <v>0.003957372065300123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.05840249828818758</v>
+        <v>0.1367489457298006</v>
       </c>
       <c r="C85">
-        <v>0.1205959168527758</v>
+        <v>-0.02765493465037752</v>
       </c>
       <c r="D85">
-        <v>0.01144724696098247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01029641756895281</v>
+      </c>
+      <c r="E85">
+        <v>0.03849269065292152</v>
+      </c>
+      <c r="F85">
+        <v>0.04600025910763883</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.02111406696565274</v>
+        <v>0.09483570223670583</v>
       </c>
       <c r="C86">
-        <v>0.08463878377181466</v>
+        <v>0.006067767133280042</v>
       </c>
       <c r="D86">
-        <v>0.1313499089333296</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04003313700703704</v>
+      </c>
+      <c r="E86">
+        <v>0.2110146672066738</v>
+      </c>
+      <c r="F86">
+        <v>-0.9081847933753184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.05876201887630674</v>
+        <v>0.09692837736551017</v>
       </c>
       <c r="C87">
-        <v>0.1231132649691897</v>
+        <v>-0.01971991332657056</v>
       </c>
       <c r="D87">
-        <v>-0.06763810367017024</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09551460378076411</v>
+      </c>
+      <c r="E87">
+        <v>-0.05132025048979173</v>
+      </c>
+      <c r="F87">
+        <v>0.05335478172892678</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.02118433278415564</v>
+        <v>0.06104994594236696</v>
       </c>
       <c r="C88">
-        <v>0.05492094669142226</v>
+        <v>-0.002175869930102728</v>
       </c>
       <c r="D88">
-        <v>-0.01194951435196996</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04961593477794151</v>
+      </c>
+      <c r="E88">
+        <v>0.02464909415863778</v>
+      </c>
+      <c r="F88">
+        <v>0.01225250165348974</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.01936294210723059</v>
+        <v>0.1333506787574902</v>
       </c>
       <c r="C89">
-        <v>0.07799445640331139</v>
+        <v>-0.01292844627738539</v>
       </c>
       <c r="D89">
-        <v>0.2269583525527385</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2501882180090628</v>
+      </c>
+      <c r="E89">
+        <v>-0.09089876062500546</v>
+      </c>
+      <c r="F89">
+        <v>-0.007893937190103784</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.03460371074826758</v>
+        <v>0.1506703170290954</v>
       </c>
       <c r="C90">
-        <v>0.06281584238452602</v>
+        <v>-0.03186218370036922</v>
       </c>
       <c r="D90">
-        <v>0.2049899356987611</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2698295030006142</v>
+      </c>
+      <c r="E90">
+        <v>-0.1125632950483567</v>
+      </c>
+      <c r="F90">
+        <v>-0.001088594241729549</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.04159779641005994</v>
+        <v>0.1206964107832895</v>
       </c>
       <c r="C91">
-        <v>0.1080961917277159</v>
+        <v>-0.01889963068221256</v>
       </c>
       <c r="D91">
-        <v>0.0359034130861688</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01318666210137164</v>
+      </c>
+      <c r="E91">
+        <v>0.05652586805728863</v>
+      </c>
+      <c r="F91">
+        <v>-0.002127993790570057</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.02456935463213107</v>
+        <v>0.1475323869579779</v>
       </c>
       <c r="C92">
-        <v>0.08631628811666141</v>
+        <v>-0.02355988598007314</v>
       </c>
       <c r="D92">
-        <v>0.2355150950831653</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2925873665985282</v>
+      </c>
+      <c r="E92">
+        <v>-0.1015902861629126</v>
+      </c>
+      <c r="F92">
+        <v>-0.01246412523774349</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.0330006061398293</v>
+        <v>0.1521758047589792</v>
       </c>
       <c r="C93">
-        <v>0.07905889327612738</v>
+        <v>-0.02774396180323912</v>
       </c>
       <c r="D93">
-        <v>0.2332825750718702</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2692202406846229</v>
+      </c>
+      <c r="E93">
+        <v>-0.07777282978659479</v>
+      </c>
+      <c r="F93">
+        <v>0.004048809610450209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.05977790093433178</v>
+        <v>0.1303283106613773</v>
       </c>
       <c r="C94">
-        <v>0.1447093116099704</v>
+        <v>-0.02466695990761739</v>
       </c>
       <c r="D94">
-        <v>0.001482951840441778</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04290105838945634</v>
+      </c>
+      <c r="E94">
+        <v>0.05802197096012156</v>
+      </c>
+      <c r="F94">
+        <v>0.03595781202775949</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.0421463782696179</v>
+        <v>0.1268990050750362</v>
       </c>
       <c r="C95">
-        <v>0.1227909107837914</v>
+        <v>-0.003691098878521343</v>
       </c>
       <c r="D95">
-        <v>-0.04949926798961783</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09184902395446659</v>
+      </c>
+      <c r="E95">
+        <v>0.0464778053097053</v>
+      </c>
+      <c r="F95">
+        <v>-0.007694290502141761</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9343848509807315</v>
+        <v>0.1063118963037531</v>
       </c>
       <c r="C96">
-        <v>0.3437661477531523</v>
+        <v>0.9875740889683398</v>
       </c>
       <c r="D96">
-        <v>0.0245873209199624</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04704010354475214</v>
+      </c>
+      <c r="E96">
+        <v>0.05550940249269092</v>
+      </c>
+      <c r="F96">
+        <v>0.04219273460084579</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.03283831873570606</v>
+        <v>0.1926662869719852</v>
       </c>
       <c r="C97">
-        <v>0.1582976513828565</v>
+        <v>0.007112818235614207</v>
       </c>
       <c r="D97">
-        <v>0.07600709208004056</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01788902976638354</v>
+      </c>
+      <c r="E97">
+        <v>0.01827259114585772</v>
+      </c>
+      <c r="F97">
+        <v>-0.09240066915613809</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.05005777707253261</v>
+        <v>0.2045703927040454</v>
       </c>
       <c r="C98">
-        <v>0.1817286747287786</v>
+        <v>-0.007084158610235804</v>
       </c>
       <c r="D98">
-        <v>-0.003994104182310035</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01377934446975198</v>
+      </c>
+      <c r="E98">
+        <v>-0.08378214654734149</v>
+      </c>
+      <c r="F98">
+        <v>-0.0947339834019226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.01118640475005535</v>
+        <v>0.05548231006056158</v>
       </c>
       <c r="C99">
-        <v>0.05723590331751839</v>
+        <v>0.00469149917166372</v>
       </c>
       <c r="D99">
-        <v>-0.003476439421023519</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03948078026456803</v>
+      </c>
+      <c r="E99">
+        <v>0.02280965851787268</v>
+      </c>
+      <c r="F99">
+        <v>0.000937145154784314</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.01155545783669958</v>
+        <v>0.125835643039364</v>
       </c>
       <c r="C100">
-        <v>0.1406330049425844</v>
+        <v>0.05421387431232281</v>
       </c>
       <c r="D100">
-        <v>-0.7099725017696221</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3436021503368184</v>
+      </c>
+      <c r="E100">
+        <v>-0.8895998672618237</v>
+      </c>
+      <c r="F100">
+        <v>-0.1397674522365166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01613894160440903</v>
+        <v>0.02738974514135068</v>
       </c>
       <c r="C101">
-        <v>0.01925857227706272</v>
+        <v>-0.008422236217685321</v>
       </c>
       <c r="D101">
-        <v>-0.004536246754915661</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03149665786601959</v>
+      </c>
+      <c r="E101">
+        <v>0.01061084635937349</v>
+      </c>
+      <c r="F101">
+        <v>-0.01338027791624168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
